--- a/data/financial_statements/socf/CEG.xlsx
+++ b/data/financial_statements/socf/CEG.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +137,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -475,57 +496,57 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>43830</v>
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-188000000</v>
+        <v>-193000000</v>
       </c>
       <c r="C2">
-        <v>-111000000</v>
+        <v>-113000000</v>
       </c>
       <c r="D2">
-        <v>106000000</v>
+        <v>111000000</v>
       </c>
       <c r="E2">
-        <v>42000000</v>
+        <v>39000000</v>
       </c>
       <c r="F2">
         <v>634000000</v>
       </c>
       <c r="G2">
-        <v>-61000000</v>
+        <v>13000000</v>
       </c>
       <c r="H2">
         <v>-769000000</v>
@@ -538,8 +559,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>603000000</v>
@@ -570,8 +591,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>384000000</v>
@@ -593,31 +614,31 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>-210000000</v>
       </c>
       <c r="C5">
-        <v>138000000</v>
+        <v>131000000</v>
       </c>
       <c r="D5">
-        <v>-58000000</v>
+        <v>-71000000</v>
       </c>
       <c r="F5">
         <v>-117000000</v>
       </c>
       <c r="G5">
-        <v>347000000</v>
+        <v>363000000</v>
       </c>
       <c r="H5">
         <v>-453000000</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>-78000000</v>
@@ -639,8 +660,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>404000000</v>
@@ -662,8 +683,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>75000000</v>
@@ -685,31 +706,31 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-2387000000</v>
+        <v>-2179000000</v>
       </c>
       <c r="C9">
-        <v>-1628000000</v>
+        <v>-1247000000</v>
       </c>
       <c r="D9">
-        <v>-282000000</v>
+        <v>64000000</v>
       </c>
       <c r="F9">
         <v>27000000</v>
       </c>
       <c r="G9">
-        <v>25000000</v>
+        <v>28000000</v>
       </c>
       <c r="H9">
         <v>-1271000000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E10">
         <v>-1460000000</v>
@@ -722,17 +743,17 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>-1194000000</v>
       </c>
       <c r="C11">
-        <v>-88000000</v>
+        <v>-76000000</v>
       </c>
       <c r="D11">
-        <v>1351000000</v>
+        <v>1339000000</v>
       </c>
       <c r="E11">
         <v>-2312000000</v>
@@ -754,8 +775,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <v>-288000000</v>
@@ -786,8 +807,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -800,8 +821,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>-889000000</v>
@@ -823,17 +844,17 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>1486000000</v>
+        <v>2347000000</v>
       </c>
       <c r="C15">
-        <v>743000000</v>
+        <v>1806000000</v>
       </c>
       <c r="D15">
-        <v>826000000</v>
+        <v>1979000000</v>
       </c>
       <c r="E15">
         <v>1583000000</v>
@@ -842,7 +863,7 @@
         <v>2184000000</v>
       </c>
       <c r="G15">
-        <v>612000000</v>
+        <v>2159000000</v>
       </c>
       <c r="H15">
         <v>4480000000</v>
@@ -855,8 +876,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>1170000000</v>
@@ -887,8 +908,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
         <v>462000000</v>
@@ -919,8 +940,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>-46000000</v>
@@ -951,17 +972,17 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>577000000</v>
+        <v>-15000000</v>
       </c>
       <c r="C19">
-        <v>691000000</v>
+        <v>-5000000</v>
       </c>
       <c r="D19">
-        <v>583000000</v>
+        <v>1727000000</v>
       </c>
       <c r="E19">
         <v>-1000000</v>
@@ -970,7 +991,7 @@
         <v>-837000000</v>
       </c>
       <c r="G19">
-        <v>-441000000</v>
+        <v>-17000000</v>
       </c>
       <c r="H19">
         <v>-297000000</v>
@@ -983,8 +1004,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B20">
         <v>401000000</v>
@@ -1015,8 +1036,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1029,17 +1050,17 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B22">
         <v>377000000</v>
       </c>
       <c r="C22">
-        <v>-770000000</v>
+        <v>-758000000</v>
       </c>
       <c r="D22">
-        <v>1120000000</v>
+        <v>1108000000</v>
       </c>
       <c r="E22">
         <v>-1443000000</v>
@@ -1061,8 +1082,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1093,8 +1114,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B24">
         <v>377000000</v>
@@ -1125,8 +1146,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B25">
         <v>-46000000</v>
@@ -1157,8 +1178,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0.1489</v>
@@ -1186,8 +1207,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B27">
         <v>-1988000000</v>
@@ -1218,8 +1239,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B28">
         <v>-889000000</v>
@@ -1250,8 +1271,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1264,8 +1285,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D30">
         <v>1750000000</v>
